--- a/output/StructureDefinition-IDCoreEncounterEMER.xlsx
+++ b/output/StructureDefinition-IDCoreEncounterEMER.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T12:08:26+07:00</t>
+    <t>2024-05-22T17:23:47+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -497,7 +497,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterStatusVS</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -602,7 +602,7 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterClassVS</t>
+    <t>http://terminology.hl7.org/ValueSet/encounter-class</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -666,7 +666,7 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterTypeVS</t>
+    <t>http://terminology.hl7.org/ValueSet/encounter-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -687,7 +687,7 @@
     <t>Broad categorization of the service that is to be provided (e.g. cardiology).</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterServiceTypeVS</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -702,7 +702,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/ActPriorityVS</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -830,7 +830,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/ParticipationTypeVS</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationType</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1032,7 +1032,7 @@
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterReasonCodesVS</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1050,7 +1050,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.kemkes.go.id/r4/StructureDefinition/IDCoreCondition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -1085,7 +1085,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.kemkes.go.id/r4/StructureDefinition/IDCoreCondition)
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
@@ -1113,7 +1113,7 @@
     <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …).</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterDiagnosisUseVS</t>
+    <t>http://terminology.hl7.org/ValueSet/diagnosis-role</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1214,7 +1214,7 @@
     <t>From where patient was admitted (physician referral, transfer).</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterHospitalizationAdmitSourceVS</t>
+    <t>http://terminology.hl7.org/ValueSet/encounter-admit-source</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1232,7 +1232,7 @@
     <t>Whether this hospitalization is a readmission and why if known.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterHospitalizationreAdmitSourceVS</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1373,47 +1373,10 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>Encounter.location.extension.id</t>
-  </si>
-  <si>
-    <t>Encounter.location.extension.extension</t>
-  </si>
-  <si>
-    <t>Encounter.location.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Encounter.location.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Encounter.location.extension:encounterLocation</t>
-  </si>
-  <si>
-    <t>encounterLocation</t>
+    <t>Encounter.location.extension:encounterlocation</t>
+  </si>
+  <si>
+    <t>encounterlocation</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://fhir.kemkes.go.id/r4/StructureDefinition/EncounterLocation}
@@ -1421,9 +1384,6 @@
   </si>
   <si>
     <t>Encounter Location Extention</t>
-  </si>
-  <si>
-    <t>The administrative code of the address, represented in six levels: province, city/regency, district, village, rt and rw.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1839,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1850,7 +1810,7 @@
   <cols>
     <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1858,7 +1818,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1873,7 +1833,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.96484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.20703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -9586,7 +9546,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9812,7 +9772,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -9914,18 +9874,20 @@
         <v>438</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9937,13 +9899,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>167</v>
+        <v>440</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>168</v>
+        <v>441</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>169</v>
+        <v>437</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9994,25 +9956,25 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10023,42 +9985,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>436</v>
+        <v>176</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10094,19 +10060,19 @@
         <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10124,7 +10090,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10135,10 +10101,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10161,17 +10127,15 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10232,27 +10196,27 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10263,7 +10227,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10275,15 +10239,17 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>446</v>
+        <v>105</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10308,13 +10274,13 @@
         <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -10332,7 +10298,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10350,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>128</v>
+        <v>457</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10361,14 +10327,12 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10389,15 +10353,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>452</v>
+        <v>205</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10422,13 +10388,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>77</v>
+        <v>463</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10446,19 +10412,19 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>173</v>
+        <v>458</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10475,46 +10441,42 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10562,25 +10524,25 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>178</v>
+        <v>464</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10591,10 +10553,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10617,13 +10579,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10674,10 +10636,10 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>85</v>
@@ -10689,24 +10651,24 @@
         <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>461</v>
+        <v>275</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>276</v>
+        <v>471</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10729,16 +10691,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>105</v>
+        <v>474</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10764,13 +10726,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -10788,7 +10750,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10803,467 +10765,15 @@
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN83" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/output/StructureDefinition-IDCoreEncounterEMER.xlsx
+++ b/output/StructureDefinition-IDCoreEncounterEMER.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T17:23:47+07:00</t>
+    <t>2024-05-23T10:54:59+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IDCoreEncounterEMER.xlsx
+++ b/output/StructureDefinition-IDCoreEncounterEMER.xlsx
@@ -54,19 +54,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:54:59+07:00</t>
+    <t>2024-05-29T21:39:03+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Thomas Chaidir</t>
+    <t>SatuSehat</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>SatuSehat (https://satusehat.kemkes.go.id/, fhir@dto.kemkes.go.id)</t>
   </si>
   <si>
     <t>Description</t>

--- a/output/StructureDefinition-IDCoreEncounterEMER.xlsx
+++ b/output/StructureDefinition-IDCoreEncounterEMER.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T21:39:03+07:00</t>
+    <t>2024-05-30T10:41:30+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
